--- a/programInfo/columnsNames.xlsx
+++ b/programInfo/columnsNames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Qt\ApplicantStatsProject\programInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B446F0D6-7BCD-47D3-9F34-64CF6E891093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038CB2DC-B53A-4E2E-A122-8DB4D3FB9B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="2540" windowWidth="21600" windowHeight="12670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Имена используемые программой</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Предмет 3</t>
+  </si>
+  <si>
+    <t>Имя факультета</t>
   </si>
 </sst>
 </file>
@@ -324,6 +327,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,9 +352,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -640,29 +643,29 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -670,7 +673,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -689,7 +692,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -697,11 +700,11 @@
         <v>9</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -710,7 +713,7 @@
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -729,7 +732,7 @@
       <c r="L4" s="13"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
@@ -737,11 +740,11 @@
         <v>7</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -750,7 +753,7 @@
       <c r="L5" s="13"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -769,7 +772,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
@@ -777,20 +780,20 @@
         <v>12</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -798,20 +801,20 @@
         <v>13</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
@@ -819,18 +822,18 @@
         <v>14</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="16"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -849,7 +852,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -868,7 +871,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -887,7 +890,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -906,7 +909,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
@@ -925,9 +928,9 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>20</v>
@@ -944,7 +947,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
